--- a/crime_report.xlsx
+++ b/crime_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -67,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -75,63 +75,108 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="header" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
@@ -495,7 +540,6 @@
       <c r="T7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>A1</t>
@@ -551,7 +595,7 @@
           <t>E18</t>
         </is>
       </c>
-      <c r="M8" s="8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
@@ -565,23 +609,19 @@
       <c r="Q8" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="R8" s="9" t="n"/>
+      <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="n"/>
-      <c r="V8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>YEAR</t>
         </is>
       </c>
-      <c r="M9" s="8" t="n"/>
-      <c r="R9" s="8" t="n"/>
-      <c r="V9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -619,14 +659,12 @@
       <c r="L10" t="n">
         <v>20</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" t="n">
         <v>15</v>
       </c>
-      <c r="R10" s="8" t="n"/>
-      <c r="V10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -664,14 +702,12 @@
       <c r="L11" t="n">
         <v>26</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" t="n">
         <v>17</v>
       </c>
-      <c r="R11" s="8" t="n"/>
-      <c r="V11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -709,135 +745,52 @@
       <c r="L12" t="n">
         <v>23</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" t="n">
         <v>15</v>
       </c>
-      <c r="R12" s="8" t="n"/>
-      <c r="V12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" t="n">
         <v>27</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" t="n">
         <v>28</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" t="n">
         <v>23</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" t="n">
         <v>41</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" t="n">
         <v>21</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" t="n">
         <v>15</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" t="n">
         <v>49</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" t="n">
         <v>18</v>
       </c>
-      <c r="L13" s="10" t="n">
+      <c r="L13" t="n">
         <v>17</v>
       </c>
-      <c r="M13" s="10" t="n">
+      <c r="M13" t="n">
         <v>11</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-      <c r="O13" s="10" t="n"/>
-      <c r="P13" s="10" t="n"/>
-      <c r="Q13" s="10" t="n"/>
-      <c r="R13" s="10" t="n"/>
-      <c r="S13" s="10" t="n"/>
-      <c r="T13" s="10" t="n"/>
-      <c r="U13" s="10" t="n"/>
-      <c r="V13" s="10" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="R14" s="8" t="n"/>
-      <c r="V14" s="8" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="R15" s="8" t="n"/>
-      <c r="V15" s="8" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="n"/>
-      <c r="M16" s="8" t="n"/>
-      <c r="R16" s="8" t="n"/>
-      <c r="V16" s="8" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="n"/>
-      <c r="M17" s="8" t="n"/>
-      <c r="R17" s="8" t="n"/>
-      <c r="V17" s="8" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="n"/>
-      <c r="M18" s="8" t="n"/>
-      <c r="R18" s="8" t="n"/>
-      <c r="V18" s="8" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="n"/>
-      <c r="M19" s="8" t="n"/>
-      <c r="R19" s="8" t="n"/>
-      <c r="V19" s="8" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="R20" s="8" t="n"/>
-      <c r="V20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="n"/>
-      <c r="M21" s="8" t="n"/>
-      <c r="R21" s="8" t="n"/>
-      <c r="V21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="10" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="10" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="10" t="n"/>
-      <c r="G22" s="10" t="n"/>
-      <c r="H22" s="10" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="K22" s="10" t="n"/>
-      <c r="L22" s="10" t="n"/>
-      <c r="M22" s="10" t="n"/>
-      <c r="N22" s="10" t="n"/>
-      <c r="O22" s="10" t="n"/>
-      <c r="P22" s="10" t="n"/>
-      <c r="Q22" s="10" t="n"/>
-      <c r="R22" s="10" t="n"/>
-      <c r="S22" s="10" t="n"/>
-      <c r="T22" s="10" t="n"/>
-      <c r="U22" s="10" t="n"/>
-      <c r="V22" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -846,7 +799,7 @@
     <mergeCell ref="G1:V6"/>
     <mergeCell ref="B7:M7"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>